--- a/RBAC (Редагування).xlsx
+++ b/RBAC (Редагування).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndatsyshyn\Dropbox\Комп'ютер\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RBAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -401,7 +401,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,6 +557,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="30">
     <border>
@@ -958,7 +964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1151,6 +1157,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1169,47 +1217,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1507,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1550,53 +1568,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="54.6" customHeight="1" thickBot="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82" t="s">
+      <c r="F1" s="89"/>
+      <c r="G1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
       <c r="O1" s="69"/>
-      <c r="P1" s="83" t="s">
+      <c r="P1" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="82" t="s">
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
       <c r="AE1" s="55"/>
       <c r="AF1" s="70"/>
-      <c r="AG1" s="82" t="s">
+      <c r="AG1" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
       <c r="AJ1" s="70" t="s">
         <v>98</v>
       </c>
@@ -1610,12 +1628,12 @@
       <c r="AN1" s="17"/>
     </row>
     <row r="2" spans="1:48" ht="57" customHeight="1" thickBot="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="83" t="s">
         <v>61</v>
       </c>
@@ -1626,14 +1644,14 @@
       <c r="H2" s="84"/>
       <c r="I2" s="84"/>
       <c r="J2" s="85"/>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82" t="s">
+      <c r="L2" s="89"/>
+      <c r="M2" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="82"/>
+      <c r="N2" s="89"/>
       <c r="O2" s="70" t="s">
         <v>97</v>
       </c>
@@ -1646,10 +1664,10 @@
       <c r="R2" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="S2" s="82" t="s">
+      <c r="S2" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="82"/>
+      <c r="T2" s="89"/>
       <c r="U2" s="70" t="s">
         <v>104</v>
       </c>
@@ -1662,31 +1680,31 @@
       <c r="X2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="82" t="s">
+      <c r="Y2" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="82"/>
+      <c r="Z2" s="89"/>
       <c r="AA2" s="70" t="s">
         <v>100</v>
       </c>
       <c r="AB2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="82" t="s">
+      <c r="AC2" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" s="82"/>
+      <c r="AD2" s="89"/>
       <c r="AE2" s="55" t="s">
         <v>92</v>
       </c>
       <c r="AF2" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="AG2" s="82" t="s">
+      <c r="AG2" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
       <c r="AJ2" s="70" t="s">
         <v>98</v>
       </c>
@@ -1700,12 +1718,12 @@
       <c r="AN2" s="17"/>
     </row>
     <row r="3" spans="1:48" ht="87" thickBot="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="18" t="s">
         <v>36</v>
       </c>
@@ -1736,7 +1754,7 @@
       <c r="N3" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="89"/>
+      <c r="O3" s="76"/>
       <c r="P3" s="22" t="s">
         <v>72</v>
       </c>
@@ -1752,7 +1770,7 @@
       <c r="T3" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="U3" s="25"/>
+      <c r="U3" s="96"/>
       <c r="V3" s="59" t="s">
         <v>90</v>
       </c>
@@ -1768,7 +1786,7 @@
       <c r="Z3" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="AA3" s="91"/>
+      <c r="AA3" s="78"/>
       <c r="AB3" s="28" t="s">
         <v>79</v>
       </c>
@@ -1778,7 +1796,7 @@
       <c r="AD3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="AE3" s="93" t="s">
+      <c r="AE3" s="80" t="s">
         <v>93</v>
       </c>
       <c r="AF3" s="28"/>
@@ -1791,7 +1809,7 @@
       <c r="AI3" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="90" t="s">
+      <c r="AJ3" s="77" t="s">
         <v>99</v>
       </c>
       <c r="AK3" s="31" t="s">
@@ -2110,7 +2128,7 @@
       <c r="T7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="94"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="58" t="s">
         <v>2</v>
       </c>
@@ -2139,7 +2157,7 @@
       <c r="AE7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AF7" s="92"/>
+      <c r="AF7" s="79"/>
       <c r="AG7" s="43" t="s">
         <v>2</v>
       </c>
@@ -2200,7 +2218,7 @@
       <c r="AL8" s="75"/>
     </row>
     <row r="9" spans="1:48" ht="15" customHeight="1">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="90" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="40" t="s">
@@ -2302,7 +2320,7 @@
       </c>
     </row>
     <row r="10" spans="1:48" s="5" customFormat="1">
-      <c r="A10" s="77"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
@@ -2400,7 +2418,7 @@
       </c>
     </row>
     <row r="11" spans="1:48">
-      <c r="A11" s="77"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
@@ -2498,7 +2516,7 @@
       </c>
     </row>
     <row r="12" spans="1:48">
-      <c r="A12" s="77"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
@@ -2596,7 +2614,7 @@
       </c>
     </row>
     <row r="13" spans="1:48">
-      <c r="A13" s="77"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
@@ -2696,7 +2714,7 @@
       </c>
     </row>
     <row r="14" spans="1:48">
-      <c r="A14" s="77"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
         <v>19</v>
@@ -2794,7 +2812,7 @@
       </c>
     </row>
     <row r="15" spans="1:48">
-      <c r="A15" s="77"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
@@ -2892,7 +2910,7 @@
       </c>
     </row>
     <row r="16" spans="1:48">
-      <c r="A16" s="77"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="9" t="s">
         <v>87</v>
       </c>
@@ -2990,7 +3008,7 @@
       </c>
     </row>
     <row r="17" spans="1:38" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A17" s="78"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="51" t="s">
         <v>45</v>
       </c>
@@ -3088,7 +3106,7 @@
       </c>
     </row>
     <row r="18" spans="1:38" ht="15" customHeight="1">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="90" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="38" t="s">
@@ -3188,7 +3206,7 @@
       </c>
     </row>
     <row r="19" spans="1:38" ht="20.25" customHeight="1">
-      <c r="A19" s="77"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
@@ -3286,7 +3304,7 @@
       </c>
     </row>
     <row r="20" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="77"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
@@ -3384,7 +3402,7 @@
       </c>
     </row>
     <row r="21" spans="1:38" ht="18" customHeight="1">
-      <c r="A21" s="77"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
@@ -3482,7 +3500,7 @@
       </c>
     </row>
     <row r="22" spans="1:38" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A22" s="77"/>
+      <c r="A22" s="91"/>
       <c r="B22" s="13" t="s">
         <v>30</v>
       </c>
@@ -3580,7 +3598,7 @@
       </c>
     </row>
     <row r="23" spans="1:38" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A23" s="77"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="62" t="s">
         <v>94</v>
       </c>
@@ -3630,7 +3648,7 @@
       <c r="T23" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="U23" s="95"/>
+      <c r="U23" s="82"/>
       <c r="V23" s="66" t="s">
         <v>2</v>
       </c>
@@ -3678,7 +3696,7 @@
       </c>
     </row>
     <row r="24" spans="1:38" s="68" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A24" s="78"/>
+      <c r="A24" s="92"/>
       <c r="B24" t="s">
         <v>95</v>
       </c>
@@ -3728,7 +3746,7 @@
       <c r="T24" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="U24" s="95"/>
+      <c r="U24" s="82"/>
       <c r="V24" s="66" t="s">
         <v>2</v>
       </c>
@@ -3776,7 +3794,7 @@
       </c>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="90" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="40" t="s">
@@ -3826,7 +3844,7 @@
       <c r="AL25" s="49"/>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" s="77"/>
+      <c r="A26" s="91"/>
       <c r="B26" s="6" t="s">
         <v>38</v>
       </c>
@@ -3874,7 +3892,7 @@
       <c r="AL26" s="12"/>
     </row>
     <row r="27" spans="1:38">
-      <c r="A27" s="77"/>
+      <c r="A27" s="91"/>
       <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
@@ -3972,7 +3990,7 @@
       </c>
     </row>
     <row r="28" spans="1:38">
-      <c r="A28" s="77"/>
+      <c r="A28" s="91"/>
       <c r="B28" s="6" t="s">
         <v>39</v>
       </c>
@@ -4070,7 +4088,7 @@
       </c>
     </row>
     <row r="29" spans="1:38">
-      <c r="A29" s="77"/>
+      <c r="A29" s="91"/>
       <c r="B29" s="6" t="s">
         <v>40</v>
       </c>
@@ -4168,7 +4186,7 @@
       </c>
     </row>
     <row r="30" spans="1:38">
-      <c r="A30" s="77"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
         <v>21</v>
@@ -4266,7 +4284,7 @@
       </c>
     </row>
     <row r="31" spans="1:38" ht="28.8">
-      <c r="A31" s="77"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="6" t="s">
         <v>24</v>
       </c>
@@ -4364,7 +4382,7 @@
       </c>
     </row>
     <row r="32" spans="1:38">
-      <c r="A32" s="77"/>
+      <c r="A32" s="91"/>
       <c r="B32" t="s">
         <v>96</v>
       </c>
@@ -4462,7 +4480,7 @@
       </c>
     </row>
     <row r="33" spans="1:38">
-      <c r="A33" s="77"/>
+      <c r="A33" s="91"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
         <v>41</v>
@@ -4560,7 +4578,7 @@
       </c>
     </row>
     <row r="34" spans="1:38" ht="15" thickBot="1">
-      <c r="A34" s="78"/>
+      <c r="A34" s="92"/>
       <c r="B34" s="13" t="s">
         <v>22</v>
       </c>
@@ -4658,7 +4676,7 @@
       </c>
     </row>
     <row r="35" spans="1:38">
-      <c r="A35" s="79" t="s">
+      <c r="A35" s="93" t="s">
         <v>86</v>
       </c>
       <c r="B35" s="38"/>
@@ -4702,7 +4720,7 @@
       <c r="AL35" s="48"/>
     </row>
     <row r="36" spans="1:38">
-      <c r="A36" s="80"/>
+      <c r="A36" s="94"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
@@ -4746,7 +4764,7 @@
       <c r="AL36" s="12"/>
     </row>
     <row r="37" spans="1:38">
-      <c r="A37" s="80"/>
+      <c r="A37" s="94"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
@@ -4794,7 +4812,7 @@
       <c r="AL37" s="12"/>
     </row>
     <row r="38" spans="1:38">
-      <c r="A38" s="80"/>
+      <c r="A38" s="94"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6" t="s">
@@ -4842,7 +4860,7 @@
       <c r="AL38" s="12"/>
     </row>
     <row r="39" spans="1:38" ht="15" thickBot="1">
-      <c r="A39" s="81"/>
+      <c r="A39" s="95"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13" t="s">
@@ -7409,6 +7427,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A18:A24"/>
     <mergeCell ref="P1:W1"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="X1:AD1"/>
@@ -7425,11 +7448,6 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A18:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RBAC (Редагування).xlsx
+++ b/RBAC (Редагування).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RBAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\FinalTask\RBAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5844"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1178,6 +1178,39 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1187,46 +1220,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1526,68 +1526,68 @@
   <dimension ref="A1:AV136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
-    <col min="14" max="15" width="14.44140625" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" customWidth="1"/>
-    <col min="18" max="18" width="17.44140625" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" customWidth="1"/>
-    <col min="21" max="21" width="18.33203125" customWidth="1"/>
-    <col min="22" max="23" width="16.6640625" customWidth="1"/>
-    <col min="24" max="24" width="16.44140625" customWidth="1"/>
-    <col min="25" max="25" width="13.6640625" customWidth="1"/>
-    <col min="26" max="26" width="15.88671875" customWidth="1"/>
-    <col min="27" max="27" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" customWidth="1"/>
+    <col min="22" max="23" width="16.7109375" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" customWidth="1"/>
+    <col min="27" max="27" width="18.85546875" customWidth="1"/>
     <col min="28" max="28" width="17" customWidth="1"/>
     <col min="29" max="29" width="24" customWidth="1"/>
     <col min="30" max="32" width="16" customWidth="1"/>
-    <col min="33" max="33" width="14.109375" customWidth="1"/>
-    <col min="34" max="34" width="13.5546875" customWidth="1"/>
-    <col min="35" max="35" width="12.44140625" customWidth="1"/>
-    <col min="36" max="36" width="20.6640625" customWidth="1"/>
-    <col min="37" max="37" width="15.6640625" customWidth="1"/>
-    <col min="38" max="38" width="13.6640625" customWidth="1"/>
+    <col min="33" max="33" width="14.140625" customWidth="1"/>
+    <col min="34" max="34" width="13.5703125" customWidth="1"/>
+    <col min="35" max="35" width="12.42578125" customWidth="1"/>
+    <col min="36" max="36" width="20.7109375" customWidth="1"/>
+    <col min="37" max="37" width="15.7109375" customWidth="1"/>
+    <col min="38" max="38" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="54.6" customHeight="1" thickBot="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89" t="s">
+      <c r="F1" s="84"/>
+      <c r="G1" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
       <c r="O1" s="69"/>
       <c r="P1" s="97" t="s">
         <v>54</v>
@@ -1599,22 +1599,22 @@
       <c r="U1" s="98"/>
       <c r="V1" s="98"/>
       <c r="W1" s="99"/>
-      <c r="X1" s="89" t="s">
+      <c r="X1" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
       <c r="AE1" s="55"/>
       <c r="AF1" s="70"/>
-      <c r="AG1" s="89" t="s">
+      <c r="AG1" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
       <c r="AJ1" s="70" t="s">
         <v>98</v>
       </c>
@@ -1628,30 +1628,30 @@
       <c r="AN1" s="17"/>
     </row>
     <row r="2" spans="1:48" ht="57" customHeight="1" thickBot="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="83" t="s">
+      <c r="F2" s="95"/>
+      <c r="G2" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="89" t="s">
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89" t="s">
+      <c r="L2" s="84"/>
+      <c r="M2" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="89"/>
+      <c r="N2" s="84"/>
       <c r="O2" s="70" t="s">
         <v>97</v>
       </c>
@@ -1664,10 +1664,10 @@
       <c r="R2" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="S2" s="89" t="s">
+      <c r="S2" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="89"/>
+      <c r="T2" s="84"/>
       <c r="U2" s="70" t="s">
         <v>104</v>
       </c>
@@ -1680,31 +1680,31 @@
       <c r="X2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="89" t="s">
+      <c r="Y2" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="89"/>
+      <c r="Z2" s="84"/>
       <c r="AA2" s="70" t="s">
         <v>100</v>
       </c>
       <c r="AB2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="89" t="s">
+      <c r="AC2" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" s="89"/>
+      <c r="AD2" s="84"/>
       <c r="AE2" s="55" t="s">
         <v>92</v>
       </c>
       <c r="AF2" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="AG2" s="89" t="s">
+      <c r="AG2" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="89"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
       <c r="AJ2" s="70" t="s">
         <v>98</v>
       </c>
@@ -1717,13 +1717,13 @@
       <c r="AM2" s="17"/>
       <c r="AN2" s="17"/>
     </row>
-    <row r="3" spans="1:48" ht="87" thickBot="1">
-      <c r="A3" s="89" t="s">
+    <row r="3" spans="1:48" ht="90.75" thickBot="1">
+      <c r="A3" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="18" t="s">
         <v>36</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="T3" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="U3" s="96"/>
+      <c r="U3" s="83"/>
       <c r="V3" s="59" t="s">
         <v>90</v>
       </c>
@@ -1829,7 +1829,7 @@
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
     </row>
-    <row r="4" spans="1:48" ht="15" thickBot="1">
+    <row r="4" spans="1:48" ht="15.75" thickBot="1">
       <c r="A4" s="34"/>
       <c r="B4" s="35" t="s">
         <v>16</v>
@@ -1876,7 +1876,7 @@
       <c r="AL4" s="72"/>
     </row>
     <row r="5" spans="1:48" ht="42.75" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="91" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="40" t="s">
@@ -1978,7 +1978,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="41.25" customHeight="1">
-      <c r="A6" s="87"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
@@ -2078,7 +2078,7 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="39" customHeight="1" thickBot="1">
-      <c r="A7" s="88"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:48" ht="15" thickBot="1">
+    <row r="8" spans="1:48" ht="15.75" thickBot="1">
       <c r="A8" s="73"/>
       <c r="B8" s="74"/>
       <c r="C8" s="74"/>
@@ -2218,7 +2218,7 @@
       <c r="AL8" s="75"/>
     </row>
     <row r="9" spans="1:48" ht="15" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="85" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="40" t="s">
@@ -2320,7 +2320,7 @@
       </c>
     </row>
     <row r="10" spans="1:48" s="5" customFormat="1">
-      <c r="A10" s="91"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
@@ -2418,7 +2418,7 @@
       </c>
     </row>
     <row r="11" spans="1:48">
-      <c r="A11" s="91"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
@@ -2516,7 +2516,7 @@
       </c>
     </row>
     <row r="12" spans="1:48">
-      <c r="A12" s="91"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
@@ -2614,7 +2614,7 @@
       </c>
     </row>
     <row r="13" spans="1:48">
-      <c r="A13" s="91"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
@@ -2714,7 +2714,7 @@
       </c>
     </row>
     <row r="14" spans="1:48">
-      <c r="A14" s="91"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
         <v>19</v>
@@ -2812,7 +2812,7 @@
       </c>
     </row>
     <row r="15" spans="1:48">
-      <c r="A15" s="91"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
@@ -2910,7 +2910,7 @@
       </c>
     </row>
     <row r="16" spans="1:48">
-      <c r="A16" s="91"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="9" t="s">
         <v>87</v>
       </c>
@@ -3008,7 +3008,7 @@
       </c>
     </row>
     <row r="17" spans="1:38" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A17" s="92"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="51" t="s">
         <v>45</v>
       </c>
@@ -3106,7 +3106,7 @@
       </c>
     </row>
     <row r="18" spans="1:38" ht="15" customHeight="1">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="85" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="38" t="s">
@@ -3206,7 +3206,7 @@
       </c>
     </row>
     <row r="19" spans="1:38" ht="20.25" customHeight="1">
-      <c r="A19" s="91"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
@@ -3304,7 +3304,7 @@
       </c>
     </row>
     <row r="20" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="91"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
@@ -3402,7 +3402,7 @@
       </c>
     </row>
     <row r="21" spans="1:38" ht="18" customHeight="1">
-      <c r="A21" s="91"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
@@ -3500,7 +3500,7 @@
       </c>
     </row>
     <row r="22" spans="1:38" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A22" s="91"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="13" t="s">
         <v>30</v>
       </c>
@@ -3598,7 +3598,7 @@
       </c>
     </row>
     <row r="23" spans="1:38" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A23" s="91"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="62" t="s">
         <v>94</v>
       </c>
@@ -3696,7 +3696,7 @@
       </c>
     </row>
     <row r="24" spans="1:38" s="68" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A24" s="92"/>
+      <c r="A24" s="87"/>
       <c r="B24" t="s">
         <v>95</v>
       </c>
@@ -3794,7 +3794,7 @@
       </c>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="85" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="40" t="s">
@@ -3844,7 +3844,7 @@
       <c r="AL25" s="49"/>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" s="91"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="6" t="s">
         <v>38</v>
       </c>
@@ -3892,7 +3892,7 @@
       <c r="AL26" s="12"/>
     </row>
     <row r="27" spans="1:38">
-      <c r="A27" s="91"/>
+      <c r="A27" s="86"/>
       <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
@@ -3990,7 +3990,7 @@
       </c>
     </row>
     <row r="28" spans="1:38">
-      <c r="A28" s="91"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="6" t="s">
         <v>39</v>
       </c>
@@ -4088,7 +4088,7 @@
       </c>
     </row>
     <row r="29" spans="1:38">
-      <c r="A29" s="91"/>
+      <c r="A29" s="86"/>
       <c r="B29" s="6" t="s">
         <v>40</v>
       </c>
@@ -4186,7 +4186,7 @@
       </c>
     </row>
     <row r="30" spans="1:38">
-      <c r="A30" s="91"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
         <v>21</v>
@@ -4283,8 +4283,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="28.8">
-      <c r="A31" s="91"/>
+    <row r="31" spans="1:38" ht="30">
+      <c r="A31" s="86"/>
       <c r="B31" s="6" t="s">
         <v>24</v>
       </c>
@@ -4382,7 +4382,7 @@
       </c>
     </row>
     <row r="32" spans="1:38">
-      <c r="A32" s="91"/>
+      <c r="A32" s="86"/>
       <c r="B32" t="s">
         <v>96</v>
       </c>
@@ -4480,7 +4480,7 @@
       </c>
     </row>
     <row r="33" spans="1:38">
-      <c r="A33" s="91"/>
+      <c r="A33" s="86"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
         <v>41</v>
@@ -4577,8 +4577,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="15" thickBot="1">
-      <c r="A34" s="92"/>
+    <row r="34" spans="1:38" ht="15.75" thickBot="1">
+      <c r="A34" s="87"/>
       <c r="B34" s="13" t="s">
         <v>22</v>
       </c>
@@ -4676,7 +4676,7 @@
       </c>
     </row>
     <row r="35" spans="1:38">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="88" t="s">
         <v>86</v>
       </c>
       <c r="B35" s="38"/>
@@ -4720,7 +4720,7 @@
       <c r="AL35" s="48"/>
     </row>
     <row r="36" spans="1:38">
-      <c r="A36" s="94"/>
+      <c r="A36" s="89"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
@@ -4764,7 +4764,7 @@
       <c r="AL36" s="12"/>
     </row>
     <row r="37" spans="1:38">
-      <c r="A37" s="94"/>
+      <c r="A37" s="89"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
@@ -4812,7 +4812,7 @@
       <c r="AL37" s="12"/>
     </row>
     <row r="38" spans="1:38">
-      <c r="A38" s="94"/>
+      <c r="A38" s="89"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6" t="s">
@@ -4859,8 +4859,8 @@
       <c r="AK38" s="6"/>
       <c r="AL38" s="12"/>
     </row>
-    <row r="39" spans="1:38" ht="15" thickBot="1">
-      <c r="A39" s="95"/>
+    <row r="39" spans="1:38" ht="15.75" thickBot="1">
+      <c r="A39" s="90"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13" t="s">
@@ -7427,11 +7427,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A18:A24"/>
     <mergeCell ref="P1:W1"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="X1:AD1"/>
@@ -7448,6 +7443,11 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A18:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
